--- a/Calculo/fórmula(desafio).xlsx
+++ b/Calculo/fórmula(desafio).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\facul\Calculo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\primeiro-repositorio\Calculo\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12510" windowHeight="7665"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12510" windowHeight="7665" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha2" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
   <si>
     <t>Meses</t>
   </si>
@@ -215,12 +215,15 @@
   <si>
     <t>o r² é a porcentagem de erro que foi eliminada ao usar a regressão linear</t>
   </si>
+  <si>
+    <t>JUROS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,8 +247,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -294,6 +305,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -327,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -362,6 +379,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1962,6 +1981,1290 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Preços</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>70.799599999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-553A-4AF1-AD6D-522227DB1DC9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Planilha1!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>JUROS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="exp"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$N$2:$N$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>78.650000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>113.13500000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73.205000000000027</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90.188560000000024</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>159.44049000000007</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>113.02559180000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>188.63581528000009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>129.68712300500007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>181.56197220700014</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>201.99952154590574</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-553A-4AF1-AD6D-522227DB1DC9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1373741056"/>
+        <c:axId val="1373741888"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1373741056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1373741888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1373741888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1373741056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Forecast</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Last Month(Outubro)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>70</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F333-47B3-BD2D-AE0E045F7B61}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Month-to-Data(Novembro)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>70.799599999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F333-47B3-BD2D-AE0E045F7B61}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Forecast(Novembro)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Planilha1!$Q$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>75.867495167260145</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F333-47B3-BD2D-AE0E045F7B61}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1373683488"/>
+        <c:axId val="1373691808"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="pt-BR"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="outEnd"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Planilha1!$B$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-F333-47B3-BD2D-AE0E045F7B61}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1373683488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1373691808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1373691808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1373683488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx2"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>EC2</c:v>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:val>
+            <c:numRef>
+              <c:f>(Planilha1!$P$42,Planilha1!$P$44,Planilha1!$P$46)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>44.535603508771935</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.903157894736843</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.351238596491228</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5815-47EE-B52A-56D5789119FB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="75"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx2">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2042,6 +3345,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3044,6 +4467,1480 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="255">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3561,6 +6458,96 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>462643</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>125186</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>136072</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>10886</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>225136</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>5195</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>554182</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>81395</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Gráfico 12"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3829,7 +6816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -4274,10 +7261,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z59"/>
+  <dimension ref="A1:AH59"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M35" sqref="M35"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4286,7 +7273,7 @@
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4302,8 +7289,24 @@
       <c r="I1" s="12"/>
       <c r="J1" s="12"/>
       <c r="K1" s="12"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="X1">
+        <f>SUM(N2:N11)+B12</f>
+        <v>1264.3291522920006</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -4319,8 +7322,21 @@
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
+      <c r="M2" s="13"/>
+      <c r="N2">
+        <f>B2*(1+0.1)^A2</f>
+        <v>66</v>
+      </c>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -4336,8 +7352,21 @@
       <c r="I3" s="12"/>
       <c r="J3" s="12"/>
       <c r="K3" s="12"/>
+      <c r="M3" s="13"/>
+      <c r="N3">
+        <f t="shared" ref="N3:N13" si="0">B3*(1+0.1)^A3</f>
+        <v>78.650000000000006</v>
+      </c>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -4353,8 +7382,21 @@
       <c r="I4" s="12"/>
       <c r="J4" s="12"/>
       <c r="K4" s="12"/>
+      <c r="M4" s="13"/>
+      <c r="N4">
+        <f t="shared" si="0"/>
+        <v>113.13500000000003</v>
+      </c>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -4370,8 +7412,21 @@
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
+      <c r="M5" s="13"/>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>73.205000000000027</v>
+      </c>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -4387,8 +7442,21 @@
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
       <c r="K6" s="12"/>
+      <c r="M6" s="13"/>
+      <c r="N6">
+        <f t="shared" si="0"/>
+        <v>90.188560000000024</v>
+      </c>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -4404,8 +7472,21 @@
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
+      <c r="M7" s="13"/>
+      <c r="N7">
+        <f t="shared" si="0"/>
+        <v>159.44049000000007</v>
+      </c>
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -4421,8 +7502,21 @@
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
+      <c r="M8" s="13"/>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>113.02559180000007</v>
+      </c>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -4438,8 +7532,21 @@
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
       <c r="K9" s="12"/>
+      <c r="M9" s="13"/>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>188.63581528000009</v>
+      </c>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -4455,8 +7562,21 @@
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
       <c r="K10" s="12"/>
+      <c r="M10" s="13"/>
+      <c r="N10">
+        <f t="shared" si="0"/>
+        <v>129.68712300500007</v>
+      </c>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -4472,8 +7592,21 @@
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
       <c r="K11" s="12"/>
+      <c r="M11" s="13"/>
+      <c r="N11">
+        <f t="shared" si="0"/>
+        <v>181.56197220700014</v>
+      </c>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -4490,8 +7623,21 @@
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
       <c r="K12" s="12"/>
+      <c r="M12" s="13"/>
+      <c r="N12">
+        <f t="shared" si="0"/>
+        <v>201.99952154590574</v>
+      </c>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -4508,8 +7654,21 @@
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="12"/>
+      <c r="M13" s="13"/>
+      <c r="N13">
+        <f t="shared" si="0"/>
+        <v>223.96829193361623</v>
+      </c>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
@@ -4519,8 +7678,17 @@
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
+      <c r="M14" s="13"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="12"/>
@@ -4532,8 +7700,17 @@
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
+      <c r="M15" s="13"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="12"/>
@@ -4545,6 +7722,28 @@
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="13"/>
+      <c r="AH16" s="13"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
@@ -4827,7 +8026,7 @@
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" s="13"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
@@ -4854,32 +8053,40 @@
       <c r="X33" s="13"/>
       <c r="Y33" s="13"/>
       <c r="Z33" s="13"/>
+      <c r="AA33" s="13"/>
+      <c r="AB33" s="13"/>
+      <c r="AC33" s="13"/>
+      <c r="AD33" s="13"/>
+      <c r="AE33" s="13"/>
+      <c r="AF33" s="13"/>
+      <c r="AG33" s="13"/>
+      <c r="AH33" s="13"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="O39" s="19"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="L41" s="17" t="s">
         <v>55</v>
       </c>
@@ -4890,7 +8097,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="L42" s="14" t="s">
         <v>47</v>
       </c>
@@ -4905,7 +8112,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="K43" t="s">
         <v>50</v>
       </c>
@@ -4923,7 +8130,7 @@
         <v>70.790000000000006</v>
       </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="K44" t="s">
         <v>49</v>
       </c>
@@ -4938,7 +8145,7 @@
         <v>14.903157894736843</v>
       </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="K45" t="s">
         <v>46</v>
       </c>
@@ -4952,7 +8159,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="L46" s="14"/>
       <c r="M46" s="14"/>
       <c r="P46">
@@ -4960,7 +8167,7 @@
         <v>11.351238596491228</v>
       </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="L47" s="14"/>
       <c r="M47" s="14"/>
     </row>
